--- a/小号.xlsx
+++ b/小号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,34 @@
   </si>
   <si>
     <t>hjz64140@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄_93/Shixiong93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 0951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgh61254@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方恒瑶 141121196802207000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱崔纽_82/Laicui82/Laicui83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那一夜惆怅99/NayiYe99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,17 +855,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="8" width="12.625" customWidth="1"/>
@@ -1252,6 +1280,39 @@
       </c>
       <c r="F22" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>13428294166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>15767940104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1272,9 +1333,10 @@
     <hyperlink ref="B16" r:id="rId13"/>
     <hyperlink ref="B18" r:id="rId14"/>
     <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B24" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1103,7 +1103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54">
+    <row r="13" spans="1:10" ht="40.5">
       <c r="A13" t="s">
         <v>79</v>
       </c>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,287 +174,295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>aji67237@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川成都10189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北黄冈7755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmr63832@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东青岛9146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东潍坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131029 2038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京联通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131029 2120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx17886@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.155.106.181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmk19906@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218.4.232.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤仁涛/320324198009026994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118.244.144.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京电信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vyk57536@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.249.27.214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵阳电信10208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞天大牛牛皮/Feitian82/Feitianniu82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏安南/513322198203275105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131116 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.82.184.210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131117 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁春天80/Gebi80/Gebichun80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟誉/610628198204149835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpu98610@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕变的蜗牛慢慢的/Tuibian2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郦增侠、610831196610204270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向钱看啊向厚赚了/Xiang1999/Xiang2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾华翰 410423196206045459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩呼啊罗迦/Mohu789【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DuiBian2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去你的温柔93/Shiqu93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人的梦想干/Nanren79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会唱歌的木头ren/Chang789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄岩后生仔/Huang89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfn16109@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命是要怒放的/Shengming79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光着脚丫跳生命/Guangzhe86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网名不要太长1993/Wangming93/Wangming94【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐晓猪77/Tangzhu77[刷过店2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬39度2005/Beiwei2005[刷过店2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生如夏花飞爹/Shengru78[支付密码忘记]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年有多少日76/Shiri76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人公仔店/Zhenren88/Zhenren89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情睡醒了没有95/aiqing1995/Aiqing1996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140302 0954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140302 1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不三不四太后/Busan2014/Busan2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任星二/430529198405045000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名蚂蚁99/Wuming1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjz64140@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄_93/Shixiong93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 0951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgh61254@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方恒瑶 141121196802207000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱崔纽_82/Laicui82/Laicui83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那一夜惆怅10/NayiYe99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半生缘9158/Bansheng1978/Bansheng1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯高爽  433100197603162536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>跨世纪的潇洒人生/Kuangshiji86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aji67237@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川成都10189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131027 1723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131027 1656</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131027 1824</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北黄冈7755</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmr63832@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东青岛9146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131027 1924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东潍坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131029 2038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京联通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131029 2120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fjx17886@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61.155.106.181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131110 1623</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmk19906@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>218.4.232.130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏苏州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131110 1724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤仁涛/320324198009026994</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118.244.144.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京电信通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131110 1813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vyk57536@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.249.27.214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵阳电信10208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞天大牛牛皮/Feitian82/Feitianniu82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏安南/513322198203275105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131116 1814</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.82.184.210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西西安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131117 1814</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈壁春天80/Gebi80/Gebichun80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王伟誉/610628198204149835</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpu98610@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜕变的蜗牛慢慢的/Tuibian2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郦增侠、610831196610204270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向钱看啊向厚赚了/Xiang1999/Xiang2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾华翰 410423196206045459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩呼啊罗迦/Mohu789【废了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DuiBian2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去你的温柔93/Shiqu93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男人的梦想干/Nanren79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会唱歌的木头ren/Chang789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄岩后生仔/Huang89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfn16109@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命是要怒放的/Shengming79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光着脚丫跳生命/Guangzhe86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网名不要太长1993/Wangming93/Wangming94【废了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐晓猪77/Tangzhu77[刷过店2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北纬39度2005/Beiwei2005[刷过店2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生如夏花飞爹/Shengru78[支付密码忘记]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十年有多少日76/Shiri76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真人公仔店/Zhenren88/Zhenren89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱情睡醒了没有95/aiqing1995/Aiqing1996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140302 0954</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140302 1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不三不四太后/Busan2014/Busan2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任星二/430529198405045000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名蚂蚁99/Wuming1999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hjz64140@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二师兄_93/Shixiong93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140308 0951</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgh61254@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140308 1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 方恒瑶 141121196802207000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱崔纽_82/Laicui82/Laicui83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那一夜惆怅99/NayiYe99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +491,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -508,6 +517,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,7 +553,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +570,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -906,7 +926,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -929,7 +949,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -952,7 +972,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -969,7 +989,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -986,7 +1006,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1003,7 +1023,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1017,7 +1037,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -1034,7 +1054,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>15019251264</v>
@@ -1048,16 +1068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C10">
         <v>13642761092</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -1065,254 +1085,274 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>18820293671</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>13642330299</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="40.5">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>13427607919</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C14">
         <v>13480439557</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>13714019841</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>18706884652</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>13544165130</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>13422711372</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
       </c>
       <c r="C19">
         <v>18219209503</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
       </c>
       <c r="C20">
         <v>18320814552</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
         <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>100</v>
       </c>
       <c r="C21">
         <v>18238604485</v>
       </c>
       <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4">
+        <v>13760474076</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>13760474076</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>13428294166</v>
       </c>
       <c r="F23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4">
+        <v>15767940104</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C24">
-        <v>15767940104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>14768385794</v>
+      </c>
+      <c r="F25">
+        <v>20140327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>109</v>
+      </c>
+      <c r="C26" s="4">
+        <v>18457052340</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26">
+        <v>20140327</v>
       </c>
     </row>
   </sheetData>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,34 @@
   </si>
   <si>
     <t>跨世纪的潇洒人生/Kuangshiji86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyjghnfth6/tgyj541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575fghfd/gyj255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycgfhh5/fghdfg54165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strdfhy/6541yggj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdghcfh/fdgh878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sreffyu/65465gfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtryyujf/65119</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,6 +1381,41 @@
       </c>
       <c r="F26">
         <v>20140327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莱崔纽_82/Laicui82/Laicui83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那一夜惆怅10/NayiYe99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +487,18 @@
   </si>
   <si>
     <t>dtryyujf/65119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱崔纽_82/Laicui1982/Laicui83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超神的雷锋姐姐/Leifeng1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zanzhao2002/Nizennong!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,13 +562,49 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -581,7 +625,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,6 +645,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1096,7 +1152,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -1341,81 +1397,91 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" s="7" customFormat="1">
+      <c r="A24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="7">
+        <v>15767940104</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1">
+      <c r="A25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="4">
-        <v>15767940104</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="C25" s="9">
+        <v>14768385794</v>
+      </c>
+      <c r="F25" s="9">
+        <v>20140327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1">
+      <c r="A26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C25">
-        <v>14768385794</v>
-      </c>
-      <c r="F25">
-        <v>20140327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="C26" s="10">
+        <v>18457052340</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="4">
-        <v>18457052340</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26">
+      <c r="F26" s="9">
         <v>20140327</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -346,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失去你的温柔93/Shiqu93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男人的梦想干/Nanren79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十年有多少日76/Shiri76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>真人公仔店/Zhenren88/Zhenren89</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二师兄_93/Shixiong93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20140308 0951</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ycgfhh5/fghdfg54165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strdfhy/6541yggj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,6 +483,22 @@
   </si>
   <si>
     <t>zanzhao2002/Nizennong!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄_93/Shixiong93/shixiong94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去你的温柔93/Shiqu93/Shiqu94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycgfhh5/fghdfg54165/wobunanguo123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年有多少日76/Shiri76/wobunanguo123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>15019251264</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>75</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C14">
         <v>13480439557</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>64</v>
@@ -1360,63 +1360,63 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>18238604485</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="4">
         <v>13760474076</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <v>13428294166</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" s="7">
         <v>15767940104</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C25" s="9">
         <v>14768385794</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="10">
         <v>18457052340</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="9">
         <v>20140327</v>
@@ -1441,47 +1441,47 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/小号.xlsx
+++ b/小号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,219 +286,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>魏安南/513322198203275105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131116 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.82.184.210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131117 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁春天80/Gebi80/Gebichun80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟誉/610628198204149835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpu98610@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕变的蜗牛慢慢的/Tuibian2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郦增侠、610831196610204270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向钱看啊向厚赚了/Xiang1999/Xiang2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾华翰 410423196206045459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩呼啊罗迦/Mohu789【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DuiBian2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人的梦想干/Nanren79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会唱歌的木头ren/Chang789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄岩后生仔/Huang89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfn16109@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命是要怒放的/Shengming79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光着脚丫跳生命/Guangzhe86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网名不要太长1993/Wangming93/Wangming94【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐晓猪77/Tangzhu77[刷过店2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬39度2005/Beiwei2005[刷过店2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生如夏花飞爹/Shengru78[支付密码忘记]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人公仔店/Zhenren88/Zhenren89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情睡醒了没有95/aiqing1995/Aiqing1996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140302 0954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140302 1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不三不四太后/Busan2014/Busan2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任星二/430529198405045000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名蚂蚁99/Wuming1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjz64140@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 0951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgh61254@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140308 1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方恒瑶 141121196802207000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那一夜惆怅10/NayiYe99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半生缘9158/Bansheng1978/Bansheng1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯高爽  433100197603162536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨世纪的潇洒人生/Kuangshiji86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyjghnfth6/tgyj541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575fghfd/gyj255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strdfhy/6541yggj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdghcfh/fdgh878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sreffyu/65465gfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtryyujf/65119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱崔纽_82/Laicui1982/Laicui83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超神的雷锋姐姐/Leifeng1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zanzhao2002/Nizennong!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄_93/Shixiong93/shixiong94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去你的温柔93/Shiqu93/Shiqu94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycgfhh5/fghdfg54165/wobunanguo123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年有多少日76/Shiri76/wobunanguo123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wobunanguo/wobunanguo123!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木乃伊888在8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>飞天大牛牛皮/Feitian82/Feitianniu82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏安南/513322198203275105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131116 1814</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.82.184.210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西西安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131117 1814</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈壁春天80/Gebi80/Gebichun80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王伟誉/610628198204149835</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpu98610@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜕变的蜗牛慢慢的/Tuibian2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郦增侠、610831196610204270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向钱看啊向厚赚了/Xiang1999/Xiang2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾华翰 410423196206045459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩呼啊罗迦/Mohu789【废了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DuiBian2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男人的梦想干/Nanren79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会唱歌的木头ren/Chang789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄岩后生仔/Huang89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfn16109@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命是要怒放的/Shengming79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光着脚丫跳生命/Guangzhe86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网名不要太长1993/Wangming93/Wangming94【废了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐晓猪77/Tangzhu77[刷过店2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北纬39度2005/Beiwei2005[刷过店2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生如夏花飞爹/Shengru78[支付密码忘记]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真人公仔店/Zhenren88/Zhenren89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱情睡醒了没有95/aiqing1995/Aiqing1996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140302 0954</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140302 1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不三不四太后/Busan2014/Busan2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任星二/430529198405045000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名蚂蚁99/Wuming1999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hjz64140@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140308 0951</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgh61254@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140308 1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 方恒瑶 141121196802207000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那一夜惆怅10/NayiYe99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半生缘9158/Bansheng1978/Bansheng1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯高爽  433100197603162536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨世纪的潇洒人生/Kuangshiji86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tyjghnfth6/tgyj541</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>575fghfd/gyj255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strdfhy/6541yggj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdghcfh/fdgh878</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sreffyu/65465gfh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtryyujf/65119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱崔纽_82/Laicui1982/Laicui83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超神的雷锋姐姐/Leifeng1991</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zanzhao2002/Nizennong!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二师兄_93/Shixiong93/shixiong94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去你的温柔93/Shiqu93/Shiqu94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycgfhh5/fghdfg54165/wobunanguo123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十年有多少日76/Shiri76/wobunanguo123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +671,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1010,7 +1027,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1033,7 +1050,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1056,7 +1073,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1073,7 +1090,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1090,7 +1107,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1107,7 +1124,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1121,7 +1138,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -1138,7 +1155,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>15019251264</v>
@@ -1152,7 +1169,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -1169,10 +1186,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>18820293671</v>
@@ -1186,7 +1203,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -1195,10 +1212,10 @@
         <v>13642330299</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
@@ -1209,13 +1226,13 @@
     </row>
     <row r="13" spans="1:10" ht="40.5">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>13427607919</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1226,10 +1243,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C14">
         <v>13480439557</v>
@@ -1243,7 +1260,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
@@ -1260,7 +1277,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -1280,7 +1297,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1288,6 +1305,9 @@
       <c r="C17">
         <v>13544165130</v>
       </c>
+      <c r="D17">
+        <v>13699059164</v>
+      </c>
       <c r="F17" t="s">
         <v>59</v>
       </c>
@@ -1300,7 +1320,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>64</v>
@@ -1320,16 +1340,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
       </c>
       <c r="C19">
         <v>18219209503</v>
       </c>
+      <c r="D19">
+        <v>13580805673</v>
+      </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -1340,83 +1363,86 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
       </c>
       <c r="C20">
         <v>18320814552</v>
       </c>
+      <c r="D20">
+        <v>18859967763</v>
+      </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
       </c>
       <c r="C21">
         <v>18238604485</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="C22" s="4">
         <v>13760474076</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>117</v>
+      <c r="A23" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C23">
         <v>13428294166</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="7">
         <v>15767940104</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="9">
         <v>14768385794</v>
@@ -1427,13 +1453,13 @@
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="10">
         <v>18457052340</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="9">
         <v>20140327</v>
@@ -1441,47 +1467,55 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>119</v>
+      <c r="A29" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>116</v>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
